--- a/REGULAR/OJT/CARAAN, JOSEPHINE.xlsx
+++ b/REGULAR/OJT/CARAAN, JOSEPHINE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4EDE26-7788-4A49-8842-D97A6771035C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2AF5D0-95F8-48CF-8072-C0BE7C9111C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="310">
   <si>
     <t>PERIOD</t>
   </si>
@@ -952,6 +952,18 @@
   </si>
   <si>
     <t>OFFICIAL</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>SP(3-0-0)</t>
+  </si>
+  <si>
+    <t>2/22-26/2024 TAIWAN</t>
   </si>
 </sst>
 </file>
@@ -1352,6 +1364,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1384,9 +1399,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1665,8 +1677,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K474" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K474" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K475" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K475" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
@@ -1995,12 +2007,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K474"/>
+  <dimension ref="A2:K475"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A256" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A52" activePane="bottomLeft"/>
       <selection activeCell="C8" sqref="C8"/>
-      <selection pane="bottomLeft" activeCell="B313" sqref="B313:K314"/>
+      <selection pane="bottomLeft" activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2022,64 +2034,64 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="55"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="58"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="61">
+      <c r="F3" s="62">
         <v>37050</v>
       </c>
-      <c r="G3" s="56"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="55"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="57" t="s">
         <v>302</v>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -2105,18 +2117,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -2173,7 +2185,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>335.05999999999995</v>
+        <v>340.05999999999995</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -11117,7 +11129,7 @@
       <c r="H405" s="39"/>
       <c r="I405" s="9"/>
       <c r="J405" s="11"/>
-      <c r="K405" s="65" t="s">
+      <c r="K405" s="54" t="s">
         <v>304</v>
       </c>
     </row>
@@ -11139,7 +11151,7 @@
       <c r="H406" s="39"/>
       <c r="I406" s="9"/>
       <c r="J406" s="11"/>
-      <c r="K406" s="65"/>
+      <c r="K406" s="54"/>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="48" t="s">
@@ -11161,7 +11173,7 @@
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B408" s="20"/>
       <c r="C408" s="13">
@@ -11181,8 +11193,7 @@
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40">
-        <f>EDATE(A408,1)</f>
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B409" s="20"/>
       <c r="C409" s="13">
@@ -11202,8 +11213,7 @@
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40">
-        <f t="shared" ref="A410:A415" si="6">EDATE(A409,1)</f>
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B410" s="20"/>
       <c r="C410" s="13">
@@ -11223,8 +11233,7 @@
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
-        <f t="shared" si="6"/>
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B411" s="20"/>
       <c r="C411" s="13">
@@ -11244,8 +11253,7 @@
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40">
-        <f t="shared" si="6"/>
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="B412" s="20" t="s">
         <v>110</v>
@@ -11269,8 +11277,7 @@
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
-        <f t="shared" si="6"/>
-        <v>45078</v>
+        <v>45107</v>
       </c>
       <c r="B413" s="20"/>
       <c r="C413" s="13">
@@ -11290,8 +11297,7 @@
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40">
-        <f t="shared" si="6"/>
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B414" s="20"/>
       <c r="C414" s="13">
@@ -11311,8 +11317,7 @@
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40">
-        <f t="shared" si="6"/>
-        <v>45139</v>
+        <v>45169</v>
       </c>
       <c r="B415" s="20"/>
       <c r="C415" s="13">
@@ -11331,15 +11336,19 @@
       <c r="K415" s="20"/>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A416" s="40"/>
+      <c r="A416" s="40">
+        <v>45199</v>
+      </c>
       <c r="B416" s="20"/>
-      <c r="C416" s="13"/>
+      <c r="C416" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D416" s="39"/>
       <c r="E416" s="13"/>
       <c r="F416" s="20"/>
-      <c r="G416" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G416" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H416" s="39"/>
       <c r="I416" s="9"/>
@@ -11347,15 +11356,19 @@
       <c r="K416" s="20"/>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A417" s="40"/>
+      <c r="A417" s="40">
+        <v>45230</v>
+      </c>
       <c r="B417" s="20"/>
-      <c r="C417" s="13"/>
+      <c r="C417" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D417" s="39"/>
       <c r="E417" s="13"/>
       <c r="F417" s="20"/>
-      <c r="G417" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G417" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H417" s="39"/>
       <c r="I417" s="9"/>
@@ -11363,15 +11376,19 @@
       <c r="K417" s="20"/>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A418" s="40"/>
+      <c r="A418" s="40">
+        <v>45260</v>
+      </c>
       <c r="B418" s="20"/>
-      <c r="C418" s="13"/>
+      <c r="C418" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D418" s="39"/>
       <c r="E418" s="13"/>
       <c r="F418" s="20"/>
-      <c r="G418" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G418" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H418" s="39"/>
       <c r="I418" s="9"/>
@@ -11379,15 +11396,23 @@
       <c r="K418" s="20"/>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A419" s="40"/>
-      <c r="B419" s="20"/>
-      <c r="C419" s="13"/>
-      <c r="D419" s="39"/>
+      <c r="A419" s="40">
+        <v>45291</v>
+      </c>
+      <c r="B419" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C419" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D419" s="39">
+        <v>5</v>
+      </c>
       <c r="E419" s="13"/>
       <c r="F419" s="20"/>
-      <c r="G419" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G419" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H419" s="39"/>
       <c r="I419" s="9"/>
@@ -11395,7 +11420,9 @@
       <c r="K419" s="20"/>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A420" s="40"/>
+      <c r="A420" s="48" t="s">
+        <v>307</v>
+      </c>
       <c r="B420" s="20"/>
       <c r="C420" s="13"/>
       <c r="D420" s="39"/>
@@ -11411,8 +11438,12 @@
       <c r="K420" s="20"/>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A421" s="40"/>
-      <c r="B421" s="20"/>
+      <c r="A421" s="40">
+        <v>45322</v>
+      </c>
+      <c r="B421" s="20" t="s">
+        <v>308</v>
+      </c>
       <c r="C421" s="13"/>
       <c r="D421" s="39"/>
       <c r="E421" s="13"/>
@@ -11424,10 +11455,14 @@
       <c r="H421" s="39"/>
       <c r="I421" s="9"/>
       <c r="J421" s="11"/>
-      <c r="K421" s="20"/>
+      <c r="K421" s="20" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A422" s="40"/>
+      <c r="A422" s="40">
+        <v>45351</v>
+      </c>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
       <c r="D422" s="39"/>
@@ -11443,7 +11478,9 @@
       <c r="K422" s="20"/>
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A423" s="40"/>
+      <c r="A423" s="40">
+        <v>45382</v>
+      </c>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
       <c r="D423" s="39"/>
@@ -11459,7 +11496,9 @@
       <c r="K423" s="20"/>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A424" s="40"/>
+      <c r="A424" s="40">
+        <v>45412</v>
+      </c>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
       <c r="D424" s="39"/>
@@ -11475,7 +11514,9 @@
       <c r="K424" s="20"/>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A425" s="40"/>
+      <c r="A425" s="40">
+        <v>45443</v>
+      </c>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
       <c r="D425" s="39"/>
@@ -11491,7 +11532,9 @@
       <c r="K425" s="20"/>
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A426" s="40"/>
+      <c r="A426" s="40">
+        <v>45473</v>
+      </c>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
       <c r="D426" s="39"/>
@@ -12259,20 +12302,36 @@
       <c r="K473" s="20"/>
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A474" s="41"/>
-      <c r="B474" s="15"/>
-      <c r="C474" s="42"/>
-      <c r="D474" s="43"/>
+      <c r="A474" s="40"/>
+      <c r="B474" s="20"/>
+      <c r="C474" s="13"/>
+      <c r="D474" s="39"/>
       <c r="E474" s="13"/>
-      <c r="F474" s="15"/>
-      <c r="G474" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H474" s="43"/>
+      <c r="F474" s="20"/>
+      <c r="G474" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H474" s="39"/>
       <c r="I474" s="9"/>
-      <c r="J474" s="12"/>
-      <c r="K474" s="15"/>
+      <c r="J474" s="11"/>
+      <c r="K474" s="20"/>
+    </row>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A475" s="41"/>
+      <c r="B475" s="15"/>
+      <c r="C475" s="42"/>
+      <c r="D475" s="43"/>
+      <c r="E475" s="13"/>
+      <c r="F475" s="15"/>
+      <c r="G475" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H475" s="43"/>
+      <c r="I475" s="9"/>
+      <c r="J475" s="12"/>
+      <c r="K475" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -12319,7 +12378,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12337,17 +12396,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="J1" s="63" t="s">
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="J1" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -12421,6 +12480,9 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>306</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -12434,14 +12496,18 @@
         <v>30</v>
       </c>
       <c r="G6" s="46"/>
-      <c r="I6" s="64" t="s">
+      <c r="I6" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>538.24099999999976</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>
